--- a/analysis/progress_report.xlsx
+++ b/analysis/progress_report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tn/Desktop/REASON/acfrs_data/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F33E9C-3684-1144-944E-F87DBDF1F5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB183865-2EDD-EE4D-BC15-415026822C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="1240" windowWidth="29480" windowHeight="22980" xr2:uid="{B51F2319-3484-7B4C-853A-FD166713B4AD}"/>
+    <workbookView xWindow="9780" yWindow="540" windowWidth="25540" windowHeight="22980" xr2:uid="{B51F2319-3484-7B4C-853A-FD166713B4AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
   <si>
     <t>state</t>
   </si>
@@ -96,7 +96,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -108,6 +108,12 @@
       <sz val="15"/>
       <name val="Monaco"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -142,11 +148,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6738DF-288A-B045-B1EA-9416E18CEA9B}">
-  <dimension ref="D4:M28"/>
+  <dimension ref="D4:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -541,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <f t="shared" ref="M5:M28" si="0">K5/G5</f>
+        <f t="shared" ref="M5:M36" si="0">K5/G5</f>
         <v>1</v>
       </c>
     </row>
@@ -562,11 +571,11 @@
         <v>2723</v>
       </c>
       <c r="I6">
-        <f t="shared" ref="I6:I28" si="1">F6-H6</f>
+        <f t="shared" ref="I6:I36" si="1">F6-H6</f>
         <v>421</v>
       </c>
       <c r="J6">
-        <f t="shared" ref="J6:J28" si="2">H6/F6</f>
+        <f t="shared" ref="J6:J36" si="2">H6/F6</f>
         <v>0.8660941475826972</v>
       </c>
       <c r="K6">
@@ -574,7 +583,7 @@
         <v>296283678</v>
       </c>
       <c r="L6">
-        <f t="shared" ref="L6:L28" si="3">G6-K6</f>
+        <f t="shared" ref="L6:L36" si="3">G6-K6</f>
         <v>35165842</v>
       </c>
       <c r="M6">
@@ -1305,6 +1314,270 @@
       <c r="M28" s="1">
         <f t="shared" si="0"/>
         <v>0.79953181588229472</v>
+      </c>
+    </row>
+    <row r="29" spans="4:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>2023</v>
+      </c>
+      <c r="E29" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>51</v>
+      </c>
+      <c r="G29">
+        <v>331449520</v>
+      </c>
+      <c r="H29">
+        <v>30</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="J29" s="5">
+        <f t="shared" si="2"/>
+        <v>0.58823529411764708</v>
+      </c>
+      <c r="K29" s="4">
+        <v>183284405</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="3"/>
+        <v>148165115</v>
+      </c>
+      <c r="M29" s="6">
+        <f t="shared" si="0"/>
+        <v>0.55297833890361348</v>
+      </c>
+    </row>
+    <row r="30" spans="4:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>2023</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>3144</v>
+      </c>
+      <c r="G30">
+        <v>331449520</v>
+      </c>
+      <c r="H30">
+        <v>733</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>2411</v>
+      </c>
+      <c r="J30" s="5">
+        <f t="shared" si="2"/>
+        <v>0.23314249363867684</v>
+      </c>
+      <c r="K30" s="4">
+        <v>123967711</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="3"/>
+        <v>207481809</v>
+      </c>
+      <c r="M30" s="6">
+        <f t="shared" si="0"/>
+        <v>0.37401686688217256</v>
+      </c>
+    </row>
+    <row r="31" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D31">
+        <v>2023</v>
+      </c>
+      <c r="E31" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>35819</v>
+      </c>
+      <c r="G31">
+        <v>270150520</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>35819</v>
+      </c>
+      <c r="J31" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="3"/>
+        <v>270150520</v>
+      </c>
+      <c r="M31" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <v>2023</v>
+      </c>
+      <c r="E32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>19479</v>
+      </c>
+      <c r="G32">
+        <v>205204602</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>19479</v>
+      </c>
+      <c r="J32" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="3"/>
+        <v>205204602</v>
+      </c>
+      <c r="M32" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="4:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>2023</v>
+      </c>
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33">
+        <v>10187</v>
+      </c>
+      <c r="G33">
+        <v>181888101</v>
+      </c>
+      <c r="H33">
+        <v>6595</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>3592</v>
+      </c>
+      <c r="J33" s="5">
+        <f t="shared" si="2"/>
+        <v>0.64739373711593207</v>
+      </c>
+      <c r="K33" s="4">
+        <v>173013714</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="3"/>
+        <v>8874387</v>
+      </c>
+      <c r="M33" s="6">
+        <f t="shared" si="0"/>
+        <v>0.95120963410355253</v>
+      </c>
+    </row>
+    <row r="34" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D34">
+        <v>2023</v>
+      </c>
+      <c r="E34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34">
+        <v>9292</v>
+      </c>
+      <c r="G34">
+        <v>23316501</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>9292</v>
+      </c>
+      <c r="J34" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="3"/>
+        <v>23316501</v>
+      </c>
+      <c r="M34" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D35">
+        <v>2023</v>
+      </c>
+      <c r="E35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35">
+        <v>16340</v>
+      </c>
+      <c r="G35">
+        <v>64945918</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="1"/>
+        <v>16340</v>
+      </c>
+      <c r="J35" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="3"/>
+        <v>64945918</v>
+      </c>
+      <c r="M35" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="4:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>2023</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36">
+        <v>14290</v>
+      </c>
+      <c r="G36" s="1">
+        <v>46628237</v>
+      </c>
+      <c r="H36">
+        <v>8708</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="1"/>
+        <v>5582</v>
+      </c>
+      <c r="J36" s="5">
+        <f t="shared" si="2"/>
+        <v>0.60937718684394682</v>
+      </c>
+      <c r="K36" s="4">
+        <v>40026461</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="3"/>
+        <v>6601776</v>
+      </c>
+      <c r="M36" s="6">
+        <f t="shared" si="0"/>
+        <v>0.85841677865710431</v>
       </c>
     </row>
   </sheetData>
